--- a/flows/VGSH_fund_flow_data.xlsx
+++ b/flows/VGSH_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3595"/>
+  <dimension ref="A1:B3603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36385,6 +36385,86 @@
         <v>-142.0265</v>
       </c>
     </row>
+    <row r="3596">
+      <c r="A3596" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3596" t="n">
+        <v>11.606</v>
+      </c>
+    </row>
+    <row r="3597">
+      <c r="A3597" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3597" t="n">
+        <v>-44.98875</v>
+      </c>
+    </row>
+    <row r="3598">
+      <c r="A3598" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3598" t="n">
+        <v>-31.8835</v>
+      </c>
+    </row>
+    <row r="3599">
+      <c r="A3599" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3599" t="n">
+        <v>-13.032</v>
+      </c>
+    </row>
+    <row r="3600">
+      <c r="A3600" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3600" t="n">
+        <v>-70.99567399999999</v>
+      </c>
+    </row>
+    <row r="3601">
+      <c r="A3601" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3601" t="n">
+        <v>-11.596</v>
+      </c>
+    </row>
+    <row r="3602">
+      <c r="A3602" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3603">
+      <c r="A3603" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3603" t="n">
+        <v>-15.96925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
